--- a/medicine/Pharmacie/Chloroacétamide/Chloroacétamide.xlsx
+++ b/medicine/Pharmacie/Chloroacétamide/Chloroacétamide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chloroac%C3%A9tamide</t>
+          <t>Chloroacétamide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le chloroacétamide est un composé organochloré de formule C2H4ClNO, utilisé comme herbicide[2] et conservateur[3]. Il se présente sous la forme d'une substance cristalline jaune ou incolore, très soluble dans l'eau[4].
+Le chloroacétamide est un composé organochloré de formule C2H4ClNO, utilisé comme herbicide et conservateur. Il se présente sous la forme d'une substance cristalline jaune ou incolore, très soluble dans l'eau.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chloroac%C3%A9tamide</t>
+          <t>Chloroacétamide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chloroacétamide est toxique lorsqu'il est ingéré, irrite les yeux et la peau et peut provoquer une réaction allergique. Il est considéré comme nuisible à la fertilité[5] et pourrait provoquer des malformations congénitales[réf. nécessaire]. Il se décompose quand il est porté à plus de 225 °C, libérant des gaz toxiques comme le dichlore et l'oxyde d'azote[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chloroacétamide est toxique lorsqu'il est ingéré, irrite les yeux et la peau et peut provoquer une réaction allergique. Il est considéré comme nuisible à la fertilité et pourrait provoquer des malformations congénitales[réf. nécessaire]. Il se décompose quand il est porté à plus de 225 °C, libérant des gaz toxiques comme le dichlore et l'oxyde d'azote.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chloroac%C3%A9tamide</t>
+          <t>Chloroacétamide</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, l'ANSM a interdit en juin 2012 la distribution de produits cosmétiques contenant du chloroacétamide[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, l'ANSM a interdit en juin 2012 la distribution de produits cosmétiques contenant du chloroacétamide.
 </t>
         </is>
       </c>
